--- a/medicao.xlsx
+++ b/medicao.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/gabrielamb2_al_insper_edu_br/Documents/INSPER/6 semestre/Eletromag/eletromag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{8D20FFD9-41BC-4885-8504-4E057965AFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ADA856B-6E31-4EE3-8DD4-726E671BF385}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{CC86B554-C8C0-41DF-B746-71144806094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A26929A-7892-479C-BE24-D76396C54EC5}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{E7EDEB9E-3CA1-4819-BC39-AF013CE753A6}"/>
   </bookViews>
   <sheets>
     <sheet name="36khz" sheetId="1" r:id="rId1"/>
     <sheet name="38" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>distancia</t>
   </si>
@@ -57,12 +58,18 @@
   <si>
     <t>Potencia</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>k_calculado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +77,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +150,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>distância X potência</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40397900262467185"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -138,13 +202,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -175,29 +245,119 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="rnd">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1DAC-4AF1-B5AA-FB74A7CAA728}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>'36khz'!$C$2:$C$21</c:f>
@@ -365,9 +525,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -382,11 +542,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -396,7 +555,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Distância</a:t>
+                  <a:t>Distância (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -414,11 +573,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -438,12 +596,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -454,9 +610,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -482,9 +637,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -499,11 +654,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -513,7 +667,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Potência</a:t>
+                  <a:t>Potência (W)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -531,11 +685,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -555,12 +708,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -571,9 +722,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -608,17 +758,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1029,6 +1190,2492 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'38'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0590551181102362E-2"/>
+                  <c:y val="-7.8298337707786478E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'38'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'38'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10C8-4906-8606-0106E5170D41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="236231423"/>
+        <c:axId val="236224351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="236231423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236224351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="236224351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236231423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distância X K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'38'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k_calculado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'38'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'38'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.21702499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17862499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.149225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12882499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.117425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11502499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12162500000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13722499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14839999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B82A-4E01-9450-C4490ABBE69D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="242386159"/>
+        <c:axId val="242381167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="242386159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Distância</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242381167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="242381167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242386159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$A$1:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2519386943084596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5621774352645303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.9914423447042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.605496834804502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.478141434000602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.694842831198802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.357287979229298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.5892254259617</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.544006312880803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.414187939679501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.443178578328201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.937556632617898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.274780325524304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100.890599029406</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118.20514882062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>138.39409499619001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160.84299912010599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183.21019720677501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.79392250945801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208.22587902517901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>203.71005566956899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190.57921503723099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>173.87689508241499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>157.14393727464599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141.98679664083599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>128.83563164153099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117.605433180804</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108.043087923198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.873321123111893</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92.849717669783999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>86.766894727110099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.458580270873099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76.791585124858798</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72.659386602616806</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.976525922253899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.674065501316804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62.696022241384398</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.996605013487198</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57.538084125256603</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55.289146869718998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.223623623854699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.3194958164338</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.5581186648878</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.923608190816601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.402354544577904</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44.982633018978099</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.654291091609302</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42.408495018724899</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41.237523374861702</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40.134597835968201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.093743692483898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.109674237791097</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.177694442232301</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36.293620292851998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.4537109273029</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34.654611271041901</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33.893303340152102</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.167064727873097</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.473433073679502</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.8101755365279</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31.175262471568399</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.566844652040899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.983233492787502</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.422883824641801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.884378844409198</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.366416926757399</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.8678000348356</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.387423508013899</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.924267039488399</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.4773866849897</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.045907767556098</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25.6290185631523</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.2259646685227</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.836043966643999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.458602116926802</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24.093028507290501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.738752613704101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.395240719990099</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.061992956841099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.738540624263401</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.424443766179099</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22.119288969802799</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.8226873657648</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.5342728078429</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.253700213680901</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.980644050047399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.714796948085599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.455868435660001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.2035837753489</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>19.957682897898501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.717919422063702</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.484059752736201</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.2558822501191</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.033176463466901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.8157424235755</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.603389988804199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18.395938239932502</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18.1932149196242</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17.995055912684599</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17.801304763667499</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17.611812228716001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>17.4264358588186</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17.245039611923598</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17.067493491590501</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16.8936732100718</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16.723459873904599</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.556739690265101</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.393403692493301</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>16.2333474833327</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.0764709945561</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15.922678261761099</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15.771877213222901</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15.6239794717831</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15.478900168838599</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15.336557769570801</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15.196873908625101</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>15.0597732355122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.925183269063901</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.793034260324401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.6632590633081</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14.535793013099401</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14.4105738108082</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14.2875414149318</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14.166637938708</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14.0478075530752</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13.9309963948813</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.816152480012001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.7032256211304</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.592167349743599</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13.482930842329701</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.3754708502805</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2697436334283</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.165706896944499</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.063319731409999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>12.9625425558714</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12.8633370637101</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>12.765666171162099</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>12.669493968336999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>12.5747856725945</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>12.4815075841469</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>12.389627043762999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>12.2991123924575</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12.209932933057299</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>12.122058893542899</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12.035461392068999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11.9501124035747</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11.865984727899299</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11.7830519593237</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11.701288457464701</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11.6206693194494</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11.5411703533072</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11.462768052514701</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>11.385439571636599</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>11.3091627030069</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11.2339158543988</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>11.159678027634801</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>11.0864287980895</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>11.0141482950438</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10.942817182846399</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>10.872416642847</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10.8029283560614</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>10.734334486536101</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10.666617665378601</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10.599760975421599</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10.5337479364931</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10.4685624912638</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10.404188991645301</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10.3406121857139</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10.2778172051369</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10.2157895530787</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10.154515092564999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10.093980035284799</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10.034170930811699</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.9750746562253703</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.9166784061159294</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.8589696829558395</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.8019362878217002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.7455663114527198</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.6898481256306894</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.63477037486836</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.5803219683932106</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.5264920724143494</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.4732701026609405</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.4206457171809799</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9.3686088093898405</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.31714950135839</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.2662581373312207</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.2159252774656402</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.1661416917826308</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.1168983543215596</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.0681864374904109</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.0199973066041199</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.9723225146035599</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.9251537969482193</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8.8784830666759795</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8.8323024096235194</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.7866040798013199</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8.7413804949174398</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8.6966242320443197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D342-4254-AC88-E33BE0CC7C81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$B$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4999999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.18500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.20000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.21500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.23500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.24500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.26500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.27000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.28000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.29000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.29500000000000015</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.30000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.30500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.31000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.31500000000000017</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.32000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33500000000000019</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.34000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.3450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.3550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.36500000000000021</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.37000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.37500000000000022</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.38500000000000023</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.39000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.39500000000000024</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.40000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.40500000000000025</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.41000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.41500000000000026</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.43000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.43500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.44000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.44500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45500000000000029</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.4650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.47000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.47500000000000031</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.48000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.48500000000000032</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49500000000000033</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.50000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.50500000000000034</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.51000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.51500000000000035</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.52000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.52500000000000036</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.53000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.53500000000000036</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.54000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.54500000000000037</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.55000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.55500000000000038</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.56000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.56500000000000039</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.5700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.5750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.5800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.58500000000000041</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.59000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.59500000000000042</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.60000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.60500000000000043</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.61000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.61500000000000044</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.62000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.62500000000000044</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.63000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.63500000000000045</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.64000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.64500000000000046</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.65000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.65500000000000047</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.66000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.66500000000000048</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.67000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.67500000000000049</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.68000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.6850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.6900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.69500000000000051</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.70000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.70500000000000052</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.71000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.71500000000000052</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.72000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.72500000000000053</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.73000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.73500000000000054</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.74000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.74500000000000055</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.75000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.75500000000000056</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.76000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.76500000000000057</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.77000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.77500000000000058</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.78000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.78500000000000059</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.79000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.7950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.8000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.8050000000000006</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.81000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.81500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.82000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.82500000000000062</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.83000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.83500000000000063</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.84000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.84500000000000064</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.85000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.85500000000000065</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.86000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.86500000000000066</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.87000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.87500000000000067</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.88000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.88500000000000068</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.89000000000000068</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.89500000000000068</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.90000000000000069</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.90500000000000069</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.9100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.9150000000000007</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.92000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.92500000000000071</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.93000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.93500000000000072</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.94000000000000072</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.94500000000000073</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.95000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.95500000000000074</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.96000000000000074</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.96500000000000075</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.97000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.97500000000000075</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.98000000000000076</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.98500000000000076</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.99000000000000077</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.99500000000000077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D342-4254-AC88-E33BE0CC7C81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="242384079"/>
+        <c:axId val="242384911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="242384079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242384911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="242384911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242384079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1109,7 +3756,629 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1625,7 +4894,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2141,20 +5410,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>331787</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>77787</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>26987</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11112</xdr:rowOff>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2186,15 +6487,128 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF4ADDD-8B27-485A-90F9-79BD041D9B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23548A8-73BD-44F8-B1C2-63F92FA6A3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18371114-A711-4C04-8E5E-AB6735DC1785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2202,7 +6616,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF4ADDD-8B27-485A-90F9-79BD041D9B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9352E8E2-8B7B-4CAF-918A-5FFF887BC2D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +6937,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2876,15 +7290,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22810FC4-8DE8-469F-BD7B-A09D0507A750}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2897,8 +7311,14 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>48.97</v>
       </c>
@@ -2913,8 +7333,15 @@
         <f>(C2^2)/9860</f>
         <v>0.12160552231237322</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E2">
+        <v>0.215</v>
+      </c>
+      <c r="F2">
+        <f>0.0045*B2^2-0.0654*B2+0.3524</f>
+        <v>0.21702499999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>56.7</v>
       </c>
@@ -2929,8 +7356,15 @@
         <f t="shared" ref="D3:D17" si="1">(C3^2)/9860</f>
         <v>0.16302687626774851</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="2">0.0045*B3^2-0.0654*B3+0.3524</f>
+        <v>0.19669999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>65.5</v>
       </c>
@@ -2945,8 +7379,15 @@
         <f t="shared" si="1"/>
         <v>0.21755831643002024</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E4">
+        <v>0.18</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.17862499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>80.900000000000006</v>
       </c>
@@ -2961,8 +7402,15 @@
         <f t="shared" si="1"/>
         <v>0.33188691683569976</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E5">
+        <v>0.16</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.1628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>91.4</v>
       </c>
@@ -2977,8 +7425,15 @@
         <f t="shared" si="1"/>
         <v>0.42362880324543606</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E6">
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.149225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>109.2</v>
       </c>
@@ -2993,8 +7448,15 @@
         <f t="shared" si="1"/>
         <v>0.60469776876267733</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.13789999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>128.5</v>
       </c>
@@ -3009,8 +7471,15 @@
         <f t="shared" si="1"/>
         <v>0.83733519269776857</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E8">
+        <v>0.13</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.12882499999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>144</v>
       </c>
@@ -3025,8 +7494,15 @@
         <f t="shared" si="1"/>
         <v>1.0515212981744422</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E9">
+        <v>0.125</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>156.19999999999999</v>
       </c>
@@ -3041,24 +7517,38 @@
         <f t="shared" si="1"/>
         <v>1.2372434077079104</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A11">
+      <c r="E10">
+        <v>0.12</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.117425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" s="4">
         <v>165</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>116.67261889578033</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>1.3805780933062879</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E11" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11509999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>162.9</v>
       </c>
@@ -3073,8 +7563,15 @@
         <f t="shared" si="1"/>
         <v>1.3456597363083163</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E12">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.11502499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>155</v>
       </c>
@@ -3089,8 +7586,15 @@
         <f t="shared" si="1"/>
         <v>1.2183062880324542</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E13">
+        <v>0.12</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.11719999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>150.5</v>
       </c>
@@ -3105,8 +7609,15 @@
         <f t="shared" si="1"/>
         <v>1.1485927991886409</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E14">
+        <v>0.12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.12162500000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>124</v>
       </c>
@@ -3121,8 +7632,15 @@
         <f t="shared" si="1"/>
         <v>0.77971602434077081</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E15">
+        <v>0.13</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.12829999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>110</v>
       </c>
@@ -3137,8 +7655,15 @@
         <f t="shared" si="1"/>
         <v>0.61359026369168335</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.13722499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>106</v>
       </c>
@@ -3152,10 +7677,1844 @@
       <c r="D17">
         <f t="shared" si="1"/>
         <v>0.56977687626774842</v>
+      </c>
+      <c r="E17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.14839999999999992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F720EFB7-3A5A-4967-ABC9-10E1D969BEFC}">
+  <dimension ref="A1:C200"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="26.86328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" s="1">
+        <v>4.2519386943084596</v>
+      </c>
+      <c r="B2">
+        <f>B1+0.005</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" s="1">
+        <v>8.5621774352645303</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">B2+0.005</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" s="1">
+        <v>12.9914423447042</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" s="1">
+        <v>17.605496834804502</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" s="1">
+        <v>22.478141434000602</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" s="1">
+        <v>27.694842831198802</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" s="1">
+        <v>33.357287979229298</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9" s="1">
+        <v>39.5892254259617</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" s="1">
+        <v>46.544006312880803</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
+        <v>54.414187939679501</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12" s="1">
+        <v>63.443178578328201</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13" s="1">
+        <v>73.937556632617898</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14" s="1">
+        <v>86.274780325524304</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15" s="1">
+        <v>100.890599029406</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16" s="1">
+        <v>118.20514882062</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" s="1">
+        <v>138.39409499619001</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" s="1">
+        <v>160.84299912010599</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" s="1">
+        <v>183.21019720677501</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20" s="1">
+        <v>200.79392250945801</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" s="1">
+        <v>208.22587902517901</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" s="1">
+        <v>203.71005566956899</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.10500000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" s="1">
+        <v>190.57921503723099</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.11000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24" s="1">
+        <v>173.87689508241499</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.11500000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" s="1">
+        <v>157.14393727464599</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26" s="1">
+        <v>141.98679664083599</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.12500000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27" s="1">
+        <v>128.83563164153099</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.13000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" s="1">
+        <v>117.605433180804</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.13500000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" s="1">
+        <v>108.043087923198</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" s="1">
+        <v>99.873321123111893</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.14500000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" s="1">
+        <v>92.849717669783999</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" s="1">
+        <v>86.766894727110099</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.15500000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" s="1">
+        <v>81.458580270873099</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A34" s="1">
+        <v>76.791585124858798</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A35" s="1">
+        <v>72.659386602616806</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.17000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A36" s="1">
+        <v>68.976525922253899</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.17500000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" s="1">
+        <v>65.674065501316804</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A38" s="1">
+        <v>62.696022241384398</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.18500000000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A39" s="1">
+        <v>59.996605013487198</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.19000000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A40" s="1">
+        <v>57.538084125256603</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.19500000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" s="1">
+        <v>55.289146869718998</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A42" s="1">
+        <v>53.223623623854699</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.2050000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A43" s="1">
+        <v>51.3194958164338</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.2100000000000001</v>
+      </c>
+      <c r="C43">
+        <f>48.97-A44</f>
+        <v>-0.5881186648878014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A44" s="1">
+        <v>49.5581186648878</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.21500000000000011</v>
+      </c>
+      <c r="C44">
+        <f>48.97-A45</f>
+        <v>1.0463918091833975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" s="1">
+        <v>47.923608190816601</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.22000000000000011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A46" s="1">
+        <v>46.402354544577904</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A47" s="1">
+        <v>44.982633018978099</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A48" s="1">
+        <v>43.654291091609302</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.23500000000000013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49" s="1">
+        <v>42.408495018724899</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50" s="1">
+        <v>41.237523374861702</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.24500000000000013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51" s="1">
+        <v>40.134597835968201</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" s="1">
+        <v>39.093743692483898</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.25500000000000012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" s="1">
+        <v>38.109674237791097</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.26000000000000012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A54" s="1">
+        <v>37.177694442232301</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.26500000000000012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A55" s="1">
+        <v>36.293620292851998</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.27000000000000013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A56" s="1">
+        <v>35.4537109273029</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A57" s="1">
+        <v>34.654611271041901</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" s="1">
+        <v>33.893303340152102</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.28500000000000014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A59" s="1">
+        <v>33.167064727873097</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A60" s="1">
+        <v>32.473433073679502</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.29500000000000015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A61" s="1">
+        <v>31.8101755365279</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A62" s="1">
+        <v>31.175262471568399</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.30500000000000016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A63" s="1">
+        <v>30.566844652040899</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A64" s="1">
+        <v>29.983233492787502</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.31500000000000017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A65" s="1">
+        <v>29.422883824641801</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A66" s="1">
+        <v>28.884378844409198</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A67" s="1">
+        <v>28.366416926757399</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="1">B66+0.005</f>
+        <v>0.33000000000000018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A68" s="1">
+        <v>27.8678000348356</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0.33500000000000019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A69" s="1">
+        <v>27.387423508013899</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>0.34000000000000019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A70" s="1">
+        <v>26.924267039488399</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0.3450000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A71" s="1">
+        <v>26.4773866849897</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.3500000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A72" s="1">
+        <v>26.045907767556098</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>0.3550000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A73" s="1">
+        <v>25.6290185631523</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>0.36000000000000021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A74" s="1">
+        <v>25.2259646685227</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>0.36500000000000021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A75" s="1">
+        <v>24.836043966643999</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>0.37000000000000022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A76" s="1">
+        <v>24.458602116926802</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A77" s="1">
+        <v>24.093028507290501</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>0.38000000000000023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A78" s="1">
+        <v>23.738752613704101</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>0.38500000000000023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A79" s="1">
+        <v>23.395240719990099</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>0.39000000000000024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A80" s="1">
+        <v>23.061992956841099</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>0.39500000000000024</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A81" s="1">
+        <v>22.738540624263401</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A82" s="1">
+        <v>22.424443766179099</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>0.40500000000000025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A83" s="1">
+        <v>22.119288969802799</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>0.41000000000000025</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A84" s="1">
+        <v>21.8226873657648</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0.41500000000000026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A85" s="1">
+        <v>21.5342728078429</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A86" s="1">
+        <v>21.253700213680901</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0.42500000000000027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A87" s="1">
+        <v>20.980644050047399</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0.43000000000000027</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A88" s="1">
+        <v>20.714796948085599</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>0.43500000000000028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A89" s="1">
+        <v>20.455868435660001</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A90" s="1">
+        <v>20.2035837753489</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0.44500000000000028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A91" s="1">
+        <v>19.957682897898501</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A92" s="1">
+        <v>19.717919422063702</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>0.45500000000000029</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A93" s="1">
+        <v>19.484059752736201</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>0.4600000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A94" s="1">
+        <v>19.2558822501191</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0.4650000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A95" s="1">
+        <v>19.033176463466901</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000031</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A96" s="1">
+        <v>18.8157424235755</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0.47500000000000031</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A97" s="1">
+        <v>18.603389988804199</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000032</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A98" s="1">
+        <v>18.395938239932502</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0.48500000000000032</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A99" s="1">
+        <v>18.1932149196242</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0.49000000000000032</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A100" s="1">
+        <v>17.995055912684599</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0.49500000000000033</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A101" s="1">
+        <v>17.801304763667499</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A102" s="1">
+        <v>17.611812228716001</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>0.50500000000000034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A103" s="1">
+        <v>17.4264358588186</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A104" s="1">
+        <v>17.245039611923598</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>0.51500000000000035</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A105" s="1">
+        <v>17.067493491590501</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>0.52000000000000035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A106" s="1">
+        <v>16.8936732100718</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A107" s="1">
+        <v>16.723459873904599</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>0.53000000000000036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A108" s="1">
+        <v>16.556739690265101</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>0.53500000000000036</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A109" s="1">
+        <v>16.393403692493301</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>0.54000000000000037</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A110" s="1">
+        <v>16.2333474833327</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>0.54500000000000037</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A111" s="1">
+        <v>16.0764709945561</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000038</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A112" s="1">
+        <v>15.922678261761099</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>0.55500000000000038</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A113" s="1">
+        <v>15.771877213222901</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000039</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A114" s="1">
+        <v>15.6239794717831</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>0.56500000000000039</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A115" s="1">
+        <v>15.478900168838599</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>0.5700000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A116" s="1">
+        <v>15.336557769570801</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>0.5750000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A117" s="1">
+        <v>15.196873908625101</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>0.5800000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A118" s="1">
+        <v>15.0597732355122</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>0.58500000000000041</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A119" s="1">
+        <v>14.925183269063901</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>0.59000000000000041</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A120" s="1">
+        <v>14.793034260324401</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>0.59500000000000042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A121" s="1">
+        <v>14.6632590633081</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000042</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A122" s="1">
+        <v>14.535793013099401</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>0.60500000000000043</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A123" s="1">
+        <v>14.4105738108082</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>0.61000000000000043</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A124" s="1">
+        <v>14.2875414149318</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>0.61500000000000044</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A125" s="1">
+        <v>14.166637938708</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>0.62000000000000044</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A126" s="1">
+        <v>14.0478075530752</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>0.62500000000000044</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A127" s="1">
+        <v>13.9309963948813</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>0.63000000000000045</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A128" s="1">
+        <v>13.816152480012001</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>0.63500000000000045</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A129" s="1">
+        <v>13.7032256211304</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000046</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A130" s="1">
+        <v>13.592167349743599</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>0.64500000000000046</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A131" s="1">
+        <v>13.482930842329701</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B194" si="2">B130+0.005</f>
+        <v>0.65000000000000047</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A132" s="1">
+        <v>13.3754708502805</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>0.65500000000000047</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A133" s="1">
+        <v>13.2697436334283</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>0.66000000000000048</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A134" s="1">
+        <v>13.165706896944499</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>0.66500000000000048</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A135" s="1">
+        <v>13.063319731409999</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>0.67000000000000048</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A136" s="1">
+        <v>12.9625425558714</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>0.67500000000000049</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A137" s="1">
+        <v>12.8633370637101</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>0.68000000000000049</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A138" s="1">
+        <v>12.765666171162099</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>0.6850000000000005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A139" s="1">
+        <v>12.669493968336999</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>0.6900000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A140" s="1">
+        <v>12.5747856725945</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>0.69500000000000051</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A141" s="1">
+        <v>12.4815075841469</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000051</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A142" s="1">
+        <v>12.389627043762999</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>0.70500000000000052</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A143" s="1">
+        <v>12.2991123924575</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>0.71000000000000052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A144" s="1">
+        <v>12.209932933057299</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>0.71500000000000052</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A145" s="1">
+        <v>12.122058893542899</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>0.72000000000000053</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A146" s="1">
+        <v>12.035461392068999</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>0.72500000000000053</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A147" s="1">
+        <v>11.9501124035747</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>0.73000000000000054</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A148" s="1">
+        <v>11.865984727899299</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>0.73500000000000054</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A149" s="1">
+        <v>11.7830519593237</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>0.74000000000000055</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A150" s="1">
+        <v>11.701288457464701</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>0.74500000000000055</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A151" s="1">
+        <v>11.6206693194494</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000056</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A152" s="1">
+        <v>11.5411703533072</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>0.75500000000000056</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A153" s="1">
+        <v>11.462768052514701</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>0.76000000000000056</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A154" s="1">
+        <v>11.385439571636599</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>0.76500000000000057</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A155" s="1">
+        <v>11.3091627030069</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>0.77000000000000057</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A156" s="1">
+        <v>11.2339158543988</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>0.77500000000000058</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A157" s="1">
+        <v>11.159678027634801</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>0.78000000000000058</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A158" s="1">
+        <v>11.0864287980895</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>0.78500000000000059</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A159" s="1">
+        <v>11.0141482950438</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>0.79000000000000059</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A160" s="1">
+        <v>10.942817182846399</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>0.7950000000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A161" s="1">
+        <v>10.872416642847</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>0.8000000000000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A162" s="1">
+        <v>10.8029283560614</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>0.8050000000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A163" s="1">
+        <v>10.734334486536101</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>0.81000000000000061</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A164" s="1">
+        <v>10.666617665378601</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>0.81500000000000061</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A165" s="1">
+        <v>10.599760975421599</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>0.82000000000000062</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A166" s="1">
+        <v>10.5337479364931</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>0.82500000000000062</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A167" s="1">
+        <v>10.4685624912638</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>0.83000000000000063</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A168" s="1">
+        <v>10.404188991645301</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>0.83500000000000063</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A169" s="1">
+        <v>10.3406121857139</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>0.84000000000000064</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A170" s="1">
+        <v>10.2778172051369</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>0.84500000000000064</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A171" s="1">
+        <v>10.2157895530787</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000064</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A172" s="1">
+        <v>10.154515092564999</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>0.85500000000000065</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A173" s="1">
+        <v>10.093980035284799</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>0.86000000000000065</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A174" s="1">
+        <v>10.034170930811699</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>0.86500000000000066</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A175" s="1">
+        <v>9.9750746562253703</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>0.87000000000000066</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A176" s="1">
+        <v>9.9166784061159294</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>0.87500000000000067</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A177" s="1">
+        <v>9.8589696829558395</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>0.88000000000000067</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A178" s="1">
+        <v>9.8019362878217002</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>0.88500000000000068</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A179" s="1">
+        <v>9.7455663114527198</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>0.89000000000000068</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A180" s="1">
+        <v>9.6898481256306894</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>0.89500000000000068</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A181" s="1">
+        <v>9.63477037486836</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000069</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A182" s="1">
+        <v>9.5803219683932106</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>0.90500000000000069</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A183" s="1">
+        <v>9.5264920724143494</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>0.9100000000000007</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A184" s="1">
+        <v>9.4732701026609405</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>0.9150000000000007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A185" s="1">
+        <v>9.4206457171809799</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>0.92000000000000071</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A186" s="1">
+        <v>9.3686088093898405</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000071</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A187" s="1">
+        <v>9.31714950135839</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>0.93000000000000071</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A188" s="1">
+        <v>9.2662581373312207</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>0.93500000000000072</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A189" s="1">
+        <v>9.2159252774656402</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>0.94000000000000072</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A190" s="1">
+        <v>9.1661416917826308</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>0.94500000000000073</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A191" s="1">
+        <v>9.1168983543215596</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000073</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A192" s="1">
+        <v>9.0681864374904109</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>0.95500000000000074</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A193" s="1">
+        <v>9.0199973066041199</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>0.96000000000000074</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A194" s="1">
+        <v>8.9723225146035599</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="2"/>
+        <v>0.96500000000000075</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A195" s="1">
+        <v>8.9251537969482193</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B200" si="3">B194+0.005</f>
+        <v>0.97000000000000075</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A196" s="1">
+        <v>8.8784830666759795</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="3"/>
+        <v>0.97500000000000075</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A197" s="1">
+        <v>8.8323024096235194</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="3"/>
+        <v>0.98000000000000076</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A198" s="1">
+        <v>8.7866040798013199</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="3"/>
+        <v>0.98500000000000076</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A199" s="1">
+        <v>8.7413804949174398</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="3"/>
+        <v>0.99000000000000077</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A200" s="2">
+        <v>8.6966242320443197</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="3"/>
+        <v>0.99500000000000077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/medicao.xlsx
+++ b/medicao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/gabrielamb2_al_insper_edu_br/Documents/INSPER/6 semestre/Eletromag/eletromag/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbaaa22ba941cb79/Documentos/4o_semestre/Eletromag/Projeto/eletromag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{CC86B554-C8C0-41DF-B746-71144806094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A26929A-7892-479C-BE24-D76396C54EC5}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{CC86B554-C8C0-41DF-B746-71144806094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB04C82E-7B15-4F2F-8C8E-77EE1C22BA06}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{E7EDEB9E-3CA1-4819-BC39-AF013CE753A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E7EDEB9E-3CA1-4819-BC39-AF013CE753A6}"/>
   </bookViews>
   <sheets>
     <sheet name="36khz" sheetId="1" r:id="rId1"/>
@@ -816,6 +816,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Valores experimentais:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Distância (cm) x Potência (W)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1042,6 +1075,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Distância (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1104,6 +1192,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Potência (W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1665,7 +1808,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Distância X K</a:t>
+              <a:t>Valores experimentais: Distância (cm) x Fator de acoplamento</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1917,7 +2060,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Distância</a:t>
+                  <a:t>Distância (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2034,7 +2177,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>k</a:t>
+                  <a:t>Fator de acoplamento, k</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6487,16 +6630,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163512</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>96837</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6523,16 +6666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>173037</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115252</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113982</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6560,15 +6703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>182562</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>115887</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6940,9 +7083,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6962,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>52.2</v>
       </c>
@@ -6978,7 +7121,7 @@
         <v>0.13817647058823529</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>62.2</v>
       </c>
@@ -6994,7 +7137,7 @@
         <v>0.19618864097363081</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>71.400000000000006</v>
       </c>
@@ -7010,7 +7153,7 @@
         <v>0.25851724137931037</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>82.5</v>
       </c>
@@ -7026,7 +7169,7 @@
         <v>0.34514452332657197</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>91.9</v>
       </c>
@@ -7042,7 +7185,7 @@
         <v>0.42827636916835693</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>102.4</v>
       </c>
@@ -7058,7 +7201,7 @@
         <v>0.53173225152129822</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>112</v>
       </c>
@@ -7074,7 +7217,7 @@
         <v>0.63610547667342798</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>121.4</v>
       </c>
@@ -7090,7 +7233,7 @@
         <v>0.74736105476673409</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>130</v>
       </c>
@@ -7106,7 +7249,7 @@
         <v>0.85699797160243385</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>138.9</v>
       </c>
@@ -7122,7 +7265,7 @@
         <v>0.97835750507099384</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>144.1</v>
       </c>
@@ -7138,7 +7281,7 @@
         <v>1.0529822515212979</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>146.19999999999999</v>
       </c>
@@ -7154,7 +7297,7 @@
         <v>1.0838965517241377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>147</v>
       </c>
@@ -7170,7 +7313,7 @@
         <v>1.0957910750507096</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>148.80000000000001</v>
       </c>
@@ -7186,7 +7329,7 @@
         <v>1.12279107505071</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>145.30000000000001</v>
       </c>
@@ -7202,7 +7345,7 @@
         <v>1.070592799188641</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>140.30000000000001</v>
       </c>
@@ -7218,7 +7361,7 @@
         <v>0.99817900608519272</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>136.69999999999999</v>
       </c>
@@ -7234,7 +7377,7 @@
         <v>0.94761105476673402</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>131.1</v>
       </c>
@@ -7250,7 +7393,7 @@
         <v>0.87156237322515195</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>127.1</v>
       </c>
@@ -7266,7 +7409,7 @@
         <v>0.81918914807302212</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>120.4</v>
       </c>
@@ -7293,12 +7436,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7318,7 +7461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>48.97</v>
       </c>
@@ -7341,7 +7484,7 @@
         <v>0.21702499999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>56.7</v>
       </c>
@@ -7364,7 +7507,7 @@
         <v>0.19669999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>65.5</v>
       </c>
@@ -7387,7 +7530,7 @@
         <v>0.17862499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80.900000000000006</v>
       </c>
@@ -7410,7 +7553,7 @@
         <v>0.1628</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>91.4</v>
       </c>
@@ -7433,7 +7576,7 @@
         <v>0.149225</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>109.2</v>
       </c>
@@ -7456,7 +7599,7 @@
         <v>0.13789999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>128.5</v>
       </c>
@@ -7479,7 +7622,7 @@
         <v>0.12882499999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>144</v>
       </c>
@@ -7502,7 +7645,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>156.19999999999999</v>
       </c>
@@ -7525,7 +7668,7 @@
         <v>0.117425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>165</v>
       </c>
@@ -7548,7 +7691,7 @@
         <v>0.11509999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>162.9</v>
       </c>
@@ -7571,7 +7714,7 @@
         <v>0.11502499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>155</v>
       </c>
@@ -7594,7 +7737,7 @@
         <v>0.11719999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>150.5</v>
       </c>
@@ -7617,7 +7760,7 @@
         <v>0.12162500000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>124</v>
       </c>
@@ -7640,7 +7783,7 @@
         <v>0.12829999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>110</v>
       </c>
@@ -7663,7 +7806,7 @@
         <v>0.13722499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>106</v>
       </c>
@@ -7696,16 +7839,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F720EFB7-3A5A-4967-ABC9-10E1D969BEFC}">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -7713,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.2519386943084596</v>
       </c>
@@ -7722,7 +7865,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8.5621774352645303</v>
       </c>
@@ -7731,7 +7874,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>12.9914423447042</v>
       </c>
@@ -7740,7 +7883,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>17.605496834804502</v>
       </c>
@@ -7749,7 +7892,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>22.478141434000602</v>
       </c>
@@ -7758,7 +7901,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>27.694842831198802</v>
       </c>
@@ -7767,7 +7910,7 @@
         <v>3.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>33.357287979229298</v>
       </c>
@@ -7776,7 +7919,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>39.5892254259617</v>
       </c>
@@ -7785,7 +7928,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>46.544006312880803</v>
       </c>
@@ -7794,7 +7937,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>54.414187939679501</v>
       </c>
@@ -7803,7 +7946,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>63.443178578328201</v>
       </c>
@@ -7812,7 +7955,7 @@
         <v>5.4999999999999993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>73.937556632617898</v>
       </c>
@@ -7821,7 +7964,7 @@
         <v>5.9999999999999991E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>86.274780325524304</v>
       </c>
@@ -7830,7 +7973,7 @@
         <v>6.4999999999999988E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100.890599029406</v>
       </c>
@@ -7839,7 +7982,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>118.20514882062</v>
       </c>
@@ -7848,7 +7991,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>138.39409499619001</v>
       </c>
@@ -7857,7 +8000,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>160.84299912010599</v>
       </c>
@@ -7866,7 +8009,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>183.21019720677501</v>
       </c>
@@ -7875,7 +8018,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>200.79392250945801</v>
       </c>
@@ -7884,7 +8027,7 @@
         <v>9.5000000000000015E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>208.22587902517901</v>
       </c>
@@ -7893,7 +8036,7 @@
         <v>0.10000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>203.71005566956899</v>
       </c>
@@ -7902,7 +8045,7 @@
         <v>0.10500000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>190.57921503723099</v>
       </c>
@@ -7911,7 +8054,7 @@
         <v>0.11000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>173.87689508241499</v>
       </c>
@@ -7920,7 +8063,7 @@
         <v>0.11500000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>157.14393727464599</v>
       </c>
@@ -7929,7 +8072,7 @@
         <v>0.12000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>141.98679664083599</v>
       </c>
@@ -7938,7 +8081,7 @@
         <v>0.12500000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>128.83563164153099</v>
       </c>
@@ -7947,7 +8090,7 @@
         <v>0.13000000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>117.605433180804</v>
       </c>
@@ -7956,7 +8099,7 @@
         <v>0.13500000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>108.043087923198</v>
       </c>
@@ -7965,7 +8108,7 @@
         <v>0.14000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>99.873321123111893</v>
       </c>
@@ -7974,7 +8117,7 @@
         <v>0.14500000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>92.849717669783999</v>
       </c>
@@ -7983,7 +8126,7 @@
         <v>0.15000000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>86.766894727110099</v>
       </c>
@@ -7992,7 +8135,7 @@
         <v>0.15500000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>81.458580270873099</v>
       </c>
@@ -8001,7 +8144,7 @@
         <v>0.16000000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>76.791585124858798</v>
       </c>
@@ -8010,7 +8153,7 @@
         <v>0.16500000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>72.659386602616806</v>
       </c>
@@ -8019,7 +8162,7 @@
         <v>0.17000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>68.976525922253899</v>
       </c>
@@ -8028,7 +8171,7 @@
         <v>0.17500000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>65.674065501316804</v>
       </c>
@@ -8037,7 +8180,7 @@
         <v>0.18000000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>62.696022241384398</v>
       </c>
@@ -8046,7 +8189,7 @@
         <v>0.18500000000000008</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>59.996605013487198</v>
       </c>
@@ -8055,7 +8198,7 @@
         <v>0.19000000000000009</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>57.538084125256603</v>
       </c>
@@ -8064,7 +8207,7 @@
         <v>0.19500000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>55.289146869718998</v>
       </c>
@@ -8073,7 +8216,7 @@
         <v>0.20000000000000009</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>53.223623623854699</v>
       </c>
@@ -8082,7 +8225,7 @@
         <v>0.2050000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>51.3194958164338</v>
       </c>
@@ -8095,7 +8238,7 @@
         <v>-0.5881186648878014</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>49.5581186648878</v>
       </c>
@@ -8108,7 +8251,7 @@
         <v>1.0463918091833975</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>47.923608190816601</v>
       </c>
@@ -8117,7 +8260,7 @@
         <v>0.22000000000000011</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46.402354544577904</v>
       </c>
@@ -8126,7 +8269,7 @@
         <v>0.22500000000000012</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44.982633018978099</v>
       </c>
@@ -8135,7 +8278,7 @@
         <v>0.23000000000000012</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43.654291091609302</v>
       </c>
@@ -8144,7 +8287,7 @@
         <v>0.23500000000000013</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42.408495018724899</v>
       </c>
@@ -8153,7 +8296,7 @@
         <v>0.24000000000000013</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>41.237523374861702</v>
       </c>
@@ -8162,7 +8305,7 @@
         <v>0.24500000000000013</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>40.134597835968201</v>
       </c>
@@ -8171,7 +8314,7 @@
         <v>0.25000000000000011</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>39.093743692483898</v>
       </c>
@@ -8180,7 +8323,7 @@
         <v>0.25500000000000012</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>38.109674237791097</v>
       </c>
@@ -8189,7 +8332,7 @@
         <v>0.26000000000000012</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>37.177694442232301</v>
       </c>
@@ -8198,7 +8341,7 @@
         <v>0.26500000000000012</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>36.293620292851998</v>
       </c>
@@ -8207,7 +8350,7 @@
         <v>0.27000000000000013</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>35.4537109273029</v>
       </c>
@@ -8216,7 +8359,7 @@
         <v>0.27500000000000013</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>34.654611271041901</v>
       </c>
@@ -8225,7 +8368,7 @@
         <v>0.28000000000000014</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>33.893303340152102</v>
       </c>
@@ -8234,7 +8377,7 @@
         <v>0.28500000000000014</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>33.167064727873097</v>
       </c>
@@ -8243,7 +8386,7 @@
         <v>0.29000000000000015</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>32.473433073679502</v>
       </c>
@@ -8252,7 +8395,7 @@
         <v>0.29500000000000015</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>31.8101755365279</v>
       </c>
@@ -8261,7 +8404,7 @@
         <v>0.30000000000000016</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>31.175262471568399</v>
       </c>
@@ -8270,7 +8413,7 @@
         <v>0.30500000000000016</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>30.566844652040899</v>
       </c>
@@ -8279,7 +8422,7 @@
         <v>0.31000000000000016</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>29.983233492787502</v>
       </c>
@@ -8288,7 +8431,7 @@
         <v>0.31500000000000017</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>29.422883824641801</v>
       </c>
@@ -8297,7 +8440,7 @@
         <v>0.32000000000000017</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>28.884378844409198</v>
       </c>
@@ -8306,7 +8449,7 @@
         <v>0.32500000000000018</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>28.366416926757399</v>
       </c>
@@ -8315,7 +8458,7 @@
         <v>0.33000000000000018</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>27.8678000348356</v>
       </c>
@@ -8324,7 +8467,7 @@
         <v>0.33500000000000019</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>27.387423508013899</v>
       </c>
@@ -8333,7 +8476,7 @@
         <v>0.34000000000000019</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>26.924267039488399</v>
       </c>
@@ -8342,7 +8485,7 @@
         <v>0.3450000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>26.4773866849897</v>
       </c>
@@ -8351,7 +8494,7 @@
         <v>0.3500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>26.045907767556098</v>
       </c>
@@ -8360,7 +8503,7 @@
         <v>0.3550000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>25.6290185631523</v>
       </c>
@@ -8369,7 +8512,7 @@
         <v>0.36000000000000021</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>25.2259646685227</v>
       </c>
@@ -8378,7 +8521,7 @@
         <v>0.36500000000000021</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>24.836043966643999</v>
       </c>
@@ -8387,7 +8530,7 @@
         <v>0.37000000000000022</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>24.458602116926802</v>
       </c>
@@ -8396,7 +8539,7 @@
         <v>0.37500000000000022</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>24.093028507290501</v>
       </c>
@@ -8405,7 +8548,7 @@
         <v>0.38000000000000023</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>23.738752613704101</v>
       </c>
@@ -8414,7 +8557,7 @@
         <v>0.38500000000000023</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>23.395240719990099</v>
       </c>
@@ -8423,7 +8566,7 @@
         <v>0.39000000000000024</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>23.061992956841099</v>
       </c>
@@ -8432,7 +8575,7 @@
         <v>0.39500000000000024</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>22.738540624263401</v>
       </c>
@@ -8441,7 +8584,7 @@
         <v>0.40000000000000024</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>22.424443766179099</v>
       </c>
@@ -8450,7 +8593,7 @@
         <v>0.40500000000000025</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>22.119288969802799</v>
       </c>
@@ -8459,7 +8602,7 @@
         <v>0.41000000000000025</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>21.8226873657648</v>
       </c>
@@ -8468,7 +8611,7 @@
         <v>0.41500000000000026</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>21.5342728078429</v>
       </c>
@@ -8477,7 +8620,7 @@
         <v>0.42000000000000026</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>21.253700213680901</v>
       </c>
@@ -8486,7 +8629,7 @@
         <v>0.42500000000000027</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>20.980644050047399</v>
       </c>
@@ -8495,7 +8638,7 @@
         <v>0.43000000000000027</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>20.714796948085599</v>
       </c>
@@ -8504,7 +8647,7 @@
         <v>0.43500000000000028</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>20.455868435660001</v>
       </c>
@@ -8513,7 +8656,7 @@
         <v>0.44000000000000028</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>20.2035837753489</v>
       </c>
@@ -8522,7 +8665,7 @@
         <v>0.44500000000000028</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>19.957682897898501</v>
       </c>
@@ -8531,7 +8674,7 @@
         <v>0.45000000000000029</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>19.717919422063702</v>
       </c>
@@ -8540,7 +8683,7 @@
         <v>0.45500000000000029</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>19.484059752736201</v>
       </c>
@@ -8549,7 +8692,7 @@
         <v>0.4600000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19.2558822501191</v>
       </c>
@@ -8558,7 +8701,7 @@
         <v>0.4650000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>19.033176463466901</v>
       </c>
@@ -8567,7 +8710,7 @@
         <v>0.47000000000000031</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>18.8157424235755</v>
       </c>
@@ -8576,7 +8719,7 @@
         <v>0.47500000000000031</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>18.603389988804199</v>
       </c>
@@ -8585,7 +8728,7 @@
         <v>0.48000000000000032</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>18.395938239932502</v>
       </c>
@@ -8594,7 +8737,7 @@
         <v>0.48500000000000032</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>18.1932149196242</v>
       </c>
@@ -8603,7 +8746,7 @@
         <v>0.49000000000000032</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>17.995055912684599</v>
       </c>
@@ -8612,7 +8755,7 @@
         <v>0.49500000000000033</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>17.801304763667499</v>
       </c>
@@ -8621,7 +8764,7 @@
         <v>0.50000000000000033</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>17.611812228716001</v>
       </c>
@@ -8630,7 +8773,7 @@
         <v>0.50500000000000034</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>17.4264358588186</v>
       </c>
@@ -8639,7 +8782,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>17.245039611923598</v>
       </c>
@@ -8648,7 +8791,7 @@
         <v>0.51500000000000035</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>17.067493491590501</v>
       </c>
@@ -8657,7 +8800,7 @@
         <v>0.52000000000000035</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>16.8936732100718</v>
       </c>
@@ -8666,7 +8809,7 @@
         <v>0.52500000000000036</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>16.723459873904599</v>
       </c>
@@ -8675,7 +8818,7 @@
         <v>0.53000000000000036</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>16.556739690265101</v>
       </c>
@@ -8684,7 +8827,7 @@
         <v>0.53500000000000036</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>16.393403692493301</v>
       </c>
@@ -8693,7 +8836,7 @@
         <v>0.54000000000000037</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>16.2333474833327</v>
       </c>
@@ -8702,7 +8845,7 @@
         <v>0.54500000000000037</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>16.0764709945561</v>
       </c>
@@ -8711,7 +8854,7 @@
         <v>0.55000000000000038</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>15.922678261761099</v>
       </c>
@@ -8720,7 +8863,7 @@
         <v>0.55500000000000038</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>15.771877213222901</v>
       </c>
@@ -8729,7 +8872,7 @@
         <v>0.56000000000000039</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15.6239794717831</v>
       </c>
@@ -8738,7 +8881,7 @@
         <v>0.56500000000000039</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>15.478900168838599</v>
       </c>
@@ -8747,7 +8890,7 @@
         <v>0.5700000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>15.336557769570801</v>
       </c>
@@ -8756,7 +8899,7 @@
         <v>0.5750000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>15.196873908625101</v>
       </c>
@@ -8765,7 +8908,7 @@
         <v>0.5800000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>15.0597732355122</v>
       </c>
@@ -8774,7 +8917,7 @@
         <v>0.58500000000000041</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>14.925183269063901</v>
       </c>
@@ -8783,7 +8926,7 @@
         <v>0.59000000000000041</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>14.793034260324401</v>
       </c>
@@ -8792,7 +8935,7 @@
         <v>0.59500000000000042</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>14.6632590633081</v>
       </c>
@@ -8801,7 +8944,7 @@
         <v>0.60000000000000042</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>14.535793013099401</v>
       </c>
@@ -8810,7 +8953,7 @@
         <v>0.60500000000000043</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>14.4105738108082</v>
       </c>
@@ -8819,7 +8962,7 @@
         <v>0.61000000000000043</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>14.2875414149318</v>
       </c>
@@ -8828,7 +8971,7 @@
         <v>0.61500000000000044</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>14.166637938708</v>
       </c>
@@ -8837,7 +8980,7 @@
         <v>0.62000000000000044</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>14.0478075530752</v>
       </c>
@@ -8846,7 +8989,7 @@
         <v>0.62500000000000044</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>13.9309963948813</v>
       </c>
@@ -8855,7 +8998,7 @@
         <v>0.63000000000000045</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>13.816152480012001</v>
       </c>
@@ -8864,7 +9007,7 @@
         <v>0.63500000000000045</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>13.7032256211304</v>
       </c>
@@ -8873,7 +9016,7 @@
         <v>0.64000000000000046</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>13.592167349743599</v>
       </c>
@@ -8882,7 +9025,7 @@
         <v>0.64500000000000046</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>13.482930842329701</v>
       </c>
@@ -8891,7 +9034,7 @@
         <v>0.65000000000000047</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>13.3754708502805</v>
       </c>
@@ -8900,7 +9043,7 @@
         <v>0.65500000000000047</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>13.2697436334283</v>
       </c>
@@ -8909,7 +9052,7 @@
         <v>0.66000000000000048</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>13.165706896944499</v>
       </c>
@@ -8918,7 +9061,7 @@
         <v>0.66500000000000048</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>13.063319731409999</v>
       </c>
@@ -8927,7 +9070,7 @@
         <v>0.67000000000000048</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>12.9625425558714</v>
       </c>
@@ -8936,7 +9079,7 @@
         <v>0.67500000000000049</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>12.8633370637101</v>
       </c>
@@ -8945,7 +9088,7 @@
         <v>0.68000000000000049</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>12.765666171162099</v>
       </c>
@@ -8954,7 +9097,7 @@
         <v>0.6850000000000005</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>12.669493968336999</v>
       </c>
@@ -8963,7 +9106,7 @@
         <v>0.6900000000000005</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>12.5747856725945</v>
       </c>
@@ -8972,7 +9115,7 @@
         <v>0.69500000000000051</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>12.4815075841469</v>
       </c>
@@ -8981,7 +9124,7 @@
         <v>0.70000000000000051</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>12.389627043762999</v>
       </c>
@@ -8990,7 +9133,7 @@
         <v>0.70500000000000052</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>12.2991123924575</v>
       </c>
@@ -8999,7 +9142,7 @@
         <v>0.71000000000000052</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>12.209932933057299</v>
       </c>
@@ -9008,7 +9151,7 @@
         <v>0.71500000000000052</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>12.122058893542899</v>
       </c>
@@ -9017,7 +9160,7 @@
         <v>0.72000000000000053</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>12.035461392068999</v>
       </c>
@@ -9026,7 +9169,7 @@
         <v>0.72500000000000053</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>11.9501124035747</v>
       </c>
@@ -9035,7 +9178,7 @@
         <v>0.73000000000000054</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>11.865984727899299</v>
       </c>
@@ -9044,7 +9187,7 @@
         <v>0.73500000000000054</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>11.7830519593237</v>
       </c>
@@ -9053,7 +9196,7 @@
         <v>0.74000000000000055</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>11.701288457464701</v>
       </c>
@@ -9062,7 +9205,7 @@
         <v>0.74500000000000055</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>11.6206693194494</v>
       </c>
@@ -9071,7 +9214,7 @@
         <v>0.75000000000000056</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>11.5411703533072</v>
       </c>
@@ -9080,7 +9223,7 @@
         <v>0.75500000000000056</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>11.462768052514701</v>
       </c>
@@ -9089,7 +9232,7 @@
         <v>0.76000000000000056</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>11.385439571636599</v>
       </c>
@@ -9098,7 +9241,7 @@
         <v>0.76500000000000057</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>11.3091627030069</v>
       </c>
@@ -9107,7 +9250,7 @@
         <v>0.77000000000000057</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>11.2339158543988</v>
       </c>
@@ -9116,7 +9259,7 @@
         <v>0.77500000000000058</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>11.159678027634801</v>
       </c>
@@ -9125,7 +9268,7 @@
         <v>0.78000000000000058</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>11.0864287980895</v>
       </c>
@@ -9134,7 +9277,7 @@
         <v>0.78500000000000059</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>11.0141482950438</v>
       </c>
@@ -9143,7 +9286,7 @@
         <v>0.79000000000000059</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>10.942817182846399</v>
       </c>
@@ -9152,7 +9295,7 @@
         <v>0.7950000000000006</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>10.872416642847</v>
       </c>
@@ -9161,7 +9304,7 @@
         <v>0.8000000000000006</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>10.8029283560614</v>
       </c>
@@ -9170,7 +9313,7 @@
         <v>0.8050000000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>10.734334486536101</v>
       </c>
@@ -9179,7 +9322,7 @@
         <v>0.81000000000000061</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>10.666617665378601</v>
       </c>
@@ -9188,7 +9331,7 @@
         <v>0.81500000000000061</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>10.599760975421599</v>
       </c>
@@ -9197,7 +9340,7 @@
         <v>0.82000000000000062</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>10.5337479364931</v>
       </c>
@@ -9206,7 +9349,7 @@
         <v>0.82500000000000062</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>10.4685624912638</v>
       </c>
@@ -9215,7 +9358,7 @@
         <v>0.83000000000000063</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>10.404188991645301</v>
       </c>
@@ -9224,7 +9367,7 @@
         <v>0.83500000000000063</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>10.3406121857139</v>
       </c>
@@ -9233,7 +9376,7 @@
         <v>0.84000000000000064</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>10.2778172051369</v>
       </c>
@@ -9242,7 +9385,7 @@
         <v>0.84500000000000064</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>10.2157895530787</v>
       </c>
@@ -9251,7 +9394,7 @@
         <v>0.85000000000000064</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>10.154515092564999</v>
       </c>
@@ -9260,7 +9403,7 @@
         <v>0.85500000000000065</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>10.093980035284799</v>
       </c>
@@ -9269,7 +9412,7 @@
         <v>0.86000000000000065</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>10.034170930811699</v>
       </c>
@@ -9278,7 +9421,7 @@
         <v>0.86500000000000066</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>9.9750746562253703</v>
       </c>
@@ -9287,7 +9430,7 @@
         <v>0.87000000000000066</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>9.9166784061159294</v>
       </c>
@@ -9296,7 +9439,7 @@
         <v>0.87500000000000067</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>9.8589696829558395</v>
       </c>
@@ -9305,7 +9448,7 @@
         <v>0.88000000000000067</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>9.8019362878217002</v>
       </c>
@@ -9314,7 +9457,7 @@
         <v>0.88500000000000068</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>9.7455663114527198</v>
       </c>
@@ -9323,7 +9466,7 @@
         <v>0.89000000000000068</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>9.6898481256306894</v>
       </c>
@@ -9332,7 +9475,7 @@
         <v>0.89500000000000068</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>9.63477037486836</v>
       </c>
@@ -9341,7 +9484,7 @@
         <v>0.90000000000000069</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>9.5803219683932106</v>
       </c>
@@ -9350,7 +9493,7 @@
         <v>0.90500000000000069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>9.5264920724143494</v>
       </c>
@@ -9359,7 +9502,7 @@
         <v>0.9100000000000007</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>9.4732701026609405</v>
       </c>
@@ -9368,7 +9511,7 @@
         <v>0.9150000000000007</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>9.4206457171809799</v>
       </c>
@@ -9377,7 +9520,7 @@
         <v>0.92000000000000071</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>9.3686088093898405</v>
       </c>
@@ -9386,7 +9529,7 @@
         <v>0.92500000000000071</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>9.31714950135839</v>
       </c>
@@ -9395,7 +9538,7 @@
         <v>0.93000000000000071</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>9.2662581373312207</v>
       </c>
@@ -9404,7 +9547,7 @@
         <v>0.93500000000000072</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>9.2159252774656402</v>
       </c>
@@ -9413,7 +9556,7 @@
         <v>0.94000000000000072</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>9.1661416917826308</v>
       </c>
@@ -9422,7 +9565,7 @@
         <v>0.94500000000000073</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>9.1168983543215596</v>
       </c>
@@ -9431,7 +9574,7 @@
         <v>0.95000000000000073</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>9.0681864374904109</v>
       </c>
@@ -9440,7 +9583,7 @@
         <v>0.95500000000000074</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>9.0199973066041199</v>
       </c>
@@ -9449,7 +9592,7 @@
         <v>0.96000000000000074</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>8.9723225146035599</v>
       </c>
@@ -9458,7 +9601,7 @@
         <v>0.96500000000000075</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>8.9251537969482193</v>
       </c>
@@ -9467,7 +9610,7 @@
         <v>0.97000000000000075</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>8.8784830666759795</v>
       </c>
@@ -9476,7 +9619,7 @@
         <v>0.97500000000000075</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>8.8323024096235194</v>
       </c>
@@ -9485,7 +9628,7 @@
         <v>0.98000000000000076</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>8.7866040798013199</v>
       </c>
@@ -9494,7 +9637,7 @@
         <v>0.98500000000000076</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>8.7413804949174398</v>
       </c>
@@ -9503,7 +9646,7 @@
         <v>0.99000000000000077</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>8.6966242320443197</v>
       </c>
